--- a/stage/stage_1_School.xlsx
+++ b/stage/stage_1_School.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
@@ -186,6 +186,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>二階</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40マス</t>
+  </si>
+  <si>
+    <t>50マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -638,13 +655,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,53 +727,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -786,18 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -811,19 +782,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -832,10 +794,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment vertical="top" textRotation="255" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" indent="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,11 +814,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="429">
+  <dxfs count="374">
     <dxf>
       <fill>
         <patternFill>
@@ -885,7 +922,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -894,7 +933,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1044,12 +1085,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1058,7 +1103,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1202,12 +1249,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1216,7 +1267,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1518,12 +1571,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1532,7 +1589,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1998,16 +2057,12 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125"/>
       </fill>
     </dxf>
     <dxf>
@@ -2016,9 +2071,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray">
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
+        <patternFill patternType="lightGray"/>
       </fill>
     </dxf>
     <dxf>
@@ -2083,12 +2136,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2097,7 +2154,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2162,7 +2221,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2241,12 +2302,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2255,7 +2320,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2478,12 +2545,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2492,7 +2563,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2557,7 +2630,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2636,12 +2711,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2650,7 +2729,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -3505,12 +3586,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -3519,402 +3604,9 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightGray"/>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -4152,6 +3844,251 @@
         <a:xfrm>
           <a:off x="4486276" y="3314700"/>
           <a:ext cx="695324" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>106137</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125187</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276851" y="9405257"/>
+          <a:ext cx="563336" cy="311604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>階へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11566072" y="9407978"/>
+          <a:ext cx="563336" cy="311604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>階へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63954</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4418240" y="9886949"/>
+          <a:ext cx="687159" cy="311604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4481,9 +4418,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA29"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4491,218 +4428,218 @@
       <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="9">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="31"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="16">
         <v>10</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="10">
         <v>6</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="32"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="10">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="32"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="63"/>
     </row>
     <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="10">
         <v>8</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="32"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="33"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="11">
         <v>9</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="33"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="64"/>
     </row>
     <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="18" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="41"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -4721,45 +4658,45 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="18" t="s">
+      <c r="AP7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AQ7" s="18"/>
+      <c r="AQ7" s="41"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="18" t="s">
+      <c r="AU7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AV7" s="18"/>
+      <c r="AV7" s="41"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="20"/>
+      <c r="BA7" s="18"/>
     </row>
     <row r="8" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
       <c r="V8" s="8"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -4781,12 +4718,12 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="8"/>
-      <c r="AQ8" s="45"/>
+      <c r="AQ8" s="30"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="8"/>
-      <c r="AV8" s="45"/>
+      <c r="AV8" s="30"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
@@ -4799,7 +4736,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="56"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4813,18 +4750,18 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -4872,34 +4809,34 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="35">
-        <v>0</v>
-      </c>
-      <c r="U10" s="36">
-        <v>0</v>
-      </c>
-      <c r="V10" s="36">
-        <v>0</v>
-      </c>
-      <c r="W10" s="36">
-        <v>0</v>
-      </c>
-      <c r="X10" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="37">
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0</v>
+      </c>
+      <c r="W10" s="21">
+        <v>0</v>
+      </c>
+      <c r="X10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22">
         <v>0</v>
       </c>
       <c r="AD10" s="3"/>
@@ -4915,34 +4852,34 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="35">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="37">
+      <c r="AQ10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="22">
         <v>0</v>
       </c>
       <c r="BA10" s="4"/>
@@ -5267,19 +5204,19 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="42">
+      <c r="Y14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="27">
         <v>0</v>
       </c>
       <c r="AD14" s="3"/>
@@ -5310,19 +5247,19 @@
       <c r="AU14" s="3">
         <v>0</v>
       </c>
-      <c r="AV14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="42">
+      <c r="AV14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="27">
         <v>0</v>
       </c>
       <c r="BA14" s="4"/>
@@ -5369,10 +5306,10 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="19" t="s">
+      <c r="AF15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG15" s="19"/>
+      <c r="AG15" s="42"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
@@ -5394,7 +5331,7 @@
       <c r="AT15" s="3">
         <v>1</v>
       </c>
-      <c r="AU15" s="45">
+      <c r="AU15" s="30">
         <v>1</v>
       </c>
       <c r="AV15" s="3"/>
@@ -5439,8 +5376,8 @@
       <c r="X16" s="3">
         <v>1</v>
       </c>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="AA16" s="3"/>
@@ -5471,11 +5408,11 @@
       <c r="AT16" s="3">
         <v>1</v>
       </c>
-      <c r="AU16" s="45">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="58" t="s">
+      <c r="AU16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="AX16" s="3"/>
@@ -5519,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="58"/>
+      <c r="Z17" s="44"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -5562,11 +5499,11 @@
       <c r="AT17" s="3">
         <v>1</v>
       </c>
-      <c r="AU17" s="45">
+      <c r="AU17" s="30">
         <v>1</v>
       </c>
       <c r="AV17" s="3"/>
-      <c r="AW17" s="58"/>
+      <c r="AW17" s="44"/>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
@@ -5651,7 +5588,7 @@
       <c r="AT18" s="3">
         <v>1</v>
       </c>
-      <c r="AU18" s="45">
+      <c r="AU18" s="30">
         <v>1</v>
       </c>
       <c r="AV18" s="3"/>
@@ -5740,7 +5677,7 @@
       <c r="AT19" s="3">
         <v>1</v>
       </c>
-      <c r="AU19" s="45">
+      <c r="AU19" s="30">
         <v>1</v>
       </c>
       <c r="AV19" s="3"/>
@@ -5752,31 +5689,31 @@
     </row>
     <row r="20" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="19"/>
+      <c r="R20" s="42"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3">
         <v>1</v>
@@ -5795,10 +5732,10 @@
       </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AB20" s="19"/>
+      <c r="AB20" s="42"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3">
         <v>8</v>
@@ -5821,10 +5758,10 @@
       <c r="AJ20" s="3">
         <v>8</v>
       </c>
-      <c r="AK20" s="19" t="s">
+      <c r="AK20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AL20" s="19"/>
+      <c r="AL20" s="42"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
@@ -5848,21 +5785,21 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
-      <c r="AZ20" s="19" t="s">
+      <c r="AZ20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BA20" s="21"/>
+      <c r="BA20" s="47"/>
     </row>
     <row r="21" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="34"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5904,16 +5841,16 @@
       <c r="AF21" s="8">
         <v>0</v>
       </c>
-      <c r="AG21" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="45">
+      <c r="AG21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="30">
         <v>8</v>
       </c>
-      <c r="AJ21" s="45">
+      <c r="AJ21" s="30">
         <v>8</v>
       </c>
       <c r="AK21" s="8"/>
@@ -5922,7 +5859,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="8"/>
-      <c r="AQ21" s="46">
+      <c r="AQ21" s="31">
         <v>1</v>
       </c>
       <c r="AR21" s="3">
@@ -5945,162 +5882,162 @@
       <c r="BA21" s="4"/>
     </row>
     <row r="22" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="59"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="35">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0</v>
-      </c>
-      <c r="E22" s="36">
-        <v>0</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0</v>
-      </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
-        <v>0</v>
-      </c>
-      <c r="K22" s="36">
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
         <v>4</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="21">
         <v>6</v>
       </c>
-      <c r="M22" s="36">
-        <v>0</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0</v>
-      </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>0</v>
-      </c>
-      <c r="R22" s="36">
-        <v>0</v>
-      </c>
-      <c r="S22" s="36">
-        <v>0</v>
-      </c>
-      <c r="T22" s="36">
-        <v>0</v>
-      </c>
-      <c r="U22" s="36">
-        <v>0</v>
-      </c>
-      <c r="V22" s="36">
-        <v>0</v>
-      </c>
-      <c r="W22" s="36">
-        <v>0</v>
-      </c>
-      <c r="X22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="51">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="36">
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
+        <v>0</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0</v>
+      </c>
+      <c r="R22" s="21">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>0</v>
+      </c>
+      <c r="X22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="21">
         <v>5</v>
       </c>
-      <c r="AN22" s="36">
+      <c r="AN22" s="21">
         <v>4</v>
       </c>
-      <c r="AO22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="37">
+      <c r="AO22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="22">
         <v>0</v>
       </c>
       <c r="BA22" s="4"/>
     </row>
     <row r="23" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="60"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="3"/>
       <c r="C23" s="12">
         <v>0</v>
@@ -6174,7 +6111,7 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-      <c r="AA23" s="52">
+      <c r="AA23" s="33">
         <v>0</v>
       </c>
       <c r="AB23" s="3">
@@ -6255,7 +6192,7 @@
       <c r="BA23" s="4"/>
     </row>
     <row r="24" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3"/>
       <c r="C24" s="12">
         <v>0</v>
@@ -6329,7 +6266,7 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="52">
+      <c r="AA24" s="33">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
@@ -6410,7 +6347,7 @@
       <c r="BA24" s="4"/>
     </row>
     <row r="25" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="3"/>
       <c r="C25" s="12">
         <v>0</v>
@@ -6484,7 +6421,7 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-      <c r="AA25" s="52">
+      <c r="AA25" s="33">
         <v>2</v>
       </c>
       <c r="AB25" s="3">
@@ -6565,10 +6502,10 @@
       <c r="BA25" s="4"/>
     </row>
     <row r="26" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="12">
         <v>0</v>
       </c>
@@ -6641,7 +6578,7 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-      <c r="AA26" s="52">
+      <c r="AA26" s="33">
         <v>0</v>
       </c>
       <c r="AB26" s="3">
@@ -6722,7 +6659,7 @@
       <c r="BA26" s="4"/>
     </row>
     <row r="27" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="62"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="3"/>
       <c r="C27" s="12">
         <v>0</v>
@@ -6796,7 +6733,7 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-      <c r="AA27" s="52">
+      <c r="AA27" s="33">
         <v>0</v>
       </c>
       <c r="AB27" s="3">
@@ -6877,156 +6814,156 @@
       <c r="BA27" s="4"/>
     </row>
     <row r="28" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="63"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="38">
-        <v>0</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0</v>
-      </c>
-      <c r="F28" s="39">
-        <v>0</v>
-      </c>
-      <c r="G28" s="39">
-        <v>0</v>
-      </c>
-      <c r="H28" s="39">
-        <v>0</v>
-      </c>
-      <c r="I28" s="39">
-        <v>0</v>
-      </c>
-      <c r="J28" s="39">
-        <v>0</v>
-      </c>
-      <c r="K28" s="39">
-        <v>0</v>
-      </c>
-      <c r="L28" s="39">
-        <v>0</v>
-      </c>
-      <c r="M28" s="39">
-        <v>0</v>
-      </c>
-      <c r="N28" s="39">
-        <v>0</v>
-      </c>
-      <c r="O28" s="39">
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0</v>
+      </c>
+      <c r="L28" s="24">
+        <v>0</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24">
         <v>4</v>
       </c>
-      <c r="P28" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>0</v>
-      </c>
-      <c r="R28" s="39">
-        <v>0</v>
-      </c>
-      <c r="S28" s="39">
-        <v>0</v>
-      </c>
-      <c r="T28" s="39">
-        <v>0</v>
-      </c>
-      <c r="U28" s="39">
-        <v>0</v>
-      </c>
-      <c r="V28" s="39">
-        <v>0</v>
-      </c>
-      <c r="W28" s="39">
-        <v>0</v>
-      </c>
-      <c r="X28" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="40">
+      <c r="P28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24">
+        <v>0</v>
+      </c>
+      <c r="S28" s="24">
+        <v>0</v>
+      </c>
+      <c r="T28" s="24">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24">
+        <v>0</v>
+      </c>
+      <c r="X28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="25">
         <v>0</v>
       </c>
       <c r="BA28" s="4"/>
@@ -7086,27 +7023,2359 @@
       <c r="AZ29" s="6"/>
       <c r="BA29" s="7"/>
     </row>
+    <row r="30" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" s="41"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA31" s="67"/>
+    </row>
+    <row r="32" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="30"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="4"/>
+    </row>
+    <row r="33" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="4"/>
+    </row>
+    <row r="34" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="20">
+        <v>0</v>
+      </c>
+      <c r="U34" s="21">
+        <v>0</v>
+      </c>
+      <c r="V34" s="21">
+        <v>0</v>
+      </c>
+      <c r="W34" s="21">
+        <v>0</v>
+      </c>
+      <c r="X34" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="4"/>
+    </row>
+    <row r="35" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="4"/>
+    </row>
+    <row r="36" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="12">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="4"/>
+    </row>
+    <row r="37" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="12">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="4"/>
+    </row>
+    <row r="38" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="68">
+        <v>0</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="68">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="4"/>
+    </row>
+    <row r="39" spans="1:53" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="4"/>
+    </row>
+    <row r="40" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="4"/>
+    </row>
+    <row r="41" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="4"/>
+    </row>
+    <row r="42" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="4"/>
+    </row>
+    <row r="43" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="4"/>
+    </row>
+    <row r="44" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="42"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="42"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="17">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="4"/>
+    </row>
+    <row r="45" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="31">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="4"/>
+    </row>
+    <row r="46" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21">
+        <v>0</v>
+      </c>
+      <c r="G46" s="21">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21">
+        <v>0</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0</v>
+      </c>
+      <c r="J46" s="21">
+        <v>0</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0</v>
+      </c>
+      <c r="L46" s="21">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+      <c r="P46" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>0</v>
+      </c>
+      <c r="R46" s="21">
+        <v>0</v>
+      </c>
+      <c r="S46" s="21">
+        <v>0</v>
+      </c>
+      <c r="T46" s="21">
+        <v>0</v>
+      </c>
+      <c r="U46" s="21">
+        <v>4</v>
+      </c>
+      <c r="V46" s="21">
+        <v>0</v>
+      </c>
+      <c r="W46" s="21">
+        <v>0</v>
+      </c>
+      <c r="X46" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="21">
+        <v>10</v>
+      </c>
+      <c r="AF46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI46" s="21">
+        <v>4</v>
+      </c>
+      <c r="AJ46" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK46" s="21">
+        <v>6</v>
+      </c>
+      <c r="AL46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="21">
+        <v>4</v>
+      </c>
+      <c r="AV46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="4"/>
+    </row>
+    <row r="47" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="38"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="33">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
+        <v>6</v>
+      </c>
+      <c r="S47" s="3">
+        <v>7</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK47" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="4"/>
+    </row>
+    <row r="48" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="38"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="33">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="4"/>
+    </row>
+    <row r="49" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="39"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="33">
+        <v>2</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6</v>
+      </c>
+      <c r="S49" s="3">
+        <v>7</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>6</v>
+      </c>
+      <c r="X49" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="4"/>
+    </row>
+    <row r="50" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="33">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>4</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="4"/>
+    </row>
+    <row r="51" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="52"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="33">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>5</v>
+      </c>
+      <c r="R51" s="3">
+        <v>6</v>
+      </c>
+      <c r="S51" s="3">
+        <v>7</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>4</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="3">
+        <v>9</v>
+      </c>
+      <c r="AV51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="4"/>
+    </row>
+    <row r="52" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="40"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24">
+        <v>0</v>
+      </c>
+      <c r="I52" s="24">
+        <v>0</v>
+      </c>
+      <c r="J52" s="24">
+        <v>0</v>
+      </c>
+      <c r="K52" s="24">
+        <v>0</v>
+      </c>
+      <c r="L52" s="24">
+        <v>0</v>
+      </c>
+      <c r="M52" s="24">
+        <v>0</v>
+      </c>
+      <c r="N52" s="24">
+        <v>0</v>
+      </c>
+      <c r="O52" s="34">
+        <v>0</v>
+      </c>
+      <c r="P52" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>0</v>
+      </c>
+      <c r="R52" s="24">
+        <v>0</v>
+      </c>
+      <c r="S52" s="24">
+        <v>0</v>
+      </c>
+      <c r="T52" s="24">
+        <v>0</v>
+      </c>
+      <c r="U52" s="24">
+        <v>4</v>
+      </c>
+      <c r="V52" s="24">
+        <v>0</v>
+      </c>
+      <c r="W52" s="24">
+        <v>0</v>
+      </c>
+      <c r="X52" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="24">
+        <v>3</v>
+      </c>
+      <c r="AI52" s="24">
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK52" s="24">
+        <v>6</v>
+      </c>
+      <c r="AL52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="4"/>
+    </row>
+    <row r="53" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="AQ9:AZ9"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="T9:AC9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="Q20:R20"/>
+  <mergeCells count="49">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="AP44:AQ44"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="AQ33:AZ33"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="P1:U1"/>
@@ -7122,461 +9391,1110 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="AQ9:AZ9"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="T9:AC9"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="Z16:Z17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I20:L20 N20:Q20 Y18:AA18 A29:XFD1048576 AC18 Y19:AC19 A1:XFD3 B22:BD25 T13:AC13 B20 A18:A21 S18:S20 B21:Z21 B27:BD28 C26:BD26 Y20:Z20 AC20:AE20 AC21:AJ21 AD17:AE19 AH17:AJ20 AM20:AO20 AR20:AT21 AW20:AX21 AQ20 BG5:XFD17 AD9:AO13 AP11:AP16 BE22:XFD28 BF18:XFD21 AK18:AZ19 BB5:BF8 BF9:BF16 AW4:AZ8 D20:G20 A4:U5 G9:T9 A10:S13 T10:AC10 T15:X20 BA4:XFD4 AQ15:AU17 A8:U8 F6:U7 AR7:AT8 X4:AO5 X7:AO8 A6:A7">
-    <cfRule type="expression" dxfId="142" priority="155">
+  <conditionalFormatting sqref="I20:L20 N20:Q20 Y18:AA18 A29:XFD30 AC18 Y19:AC19 A1:XFD3 B22:BD25 T13:AC13 B20 A18:A21 S18:S20 B21:Z21 B27:BD28 C26:BD26 Y20:Z20 AC20:AE20 AC21:AJ21 AD17:AE19 AH17:AJ20 AM20:AO20 AR20:AT21 AW20:AX21 AQ20 BG5:XFD17 AD9:AO13 AP11:AP16 BE22:XFD28 BF18:XFD21 AK18:AZ19 BB5:BF8 BF9:BF16 AW4:AZ8 D20:G20 A4:U5 G9:T9 A10:S13 T10:AC10 T15:X20 BA4:XFD4 AQ15:AU17 A8:U8 F6:U7 AR7:AT8 X4:AO5 X7:AO8 A6:A7 BB31:XFD38 A53:XFD1048576 A39:X43 AD39:AU43 S44:X45 BA39:XFD52 AD45:AU45 AD44:AJ44 AM44:AP44 AR44:AU44">
+    <cfRule type="expression" dxfId="373" priority="441">
       <formula>A1="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="156">
+    <cfRule type="expression" dxfId="372" priority="442">
       <formula>A1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="157">
+    <cfRule type="expression" dxfId="371" priority="443">
       <formula>A1=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="158">
+    <cfRule type="expression" dxfId="370" priority="444">
       <formula>A1=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="159">
+    <cfRule type="expression" dxfId="369" priority="445">
       <formula>A1=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="160">
+    <cfRule type="expression" dxfId="368" priority="446">
       <formula>A1=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="161">
+    <cfRule type="expression" dxfId="367" priority="447">
       <formula>A1=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="162">
+    <cfRule type="expression" dxfId="366" priority="448">
       <formula>A1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="163">
+    <cfRule type="expression" dxfId="365" priority="449">
       <formula>A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="164">
+    <cfRule type="expression" dxfId="364" priority="450">
       <formula>A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="165">
+    <cfRule type="expression" dxfId="363" priority="451">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="131" priority="144">
+    <cfRule type="expression" dxfId="362" priority="430">
       <formula>A25="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="145">
+    <cfRule type="expression" dxfId="361" priority="431">
       <formula>A25=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="146">
+    <cfRule type="expression" dxfId="360" priority="432">
       <formula>A25=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="147">
+    <cfRule type="expression" dxfId="359" priority="433">
       <formula>A25=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="148">
+    <cfRule type="expression" dxfId="358" priority="434">
       <formula>A25=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="149">
+    <cfRule type="expression" dxfId="357" priority="435">
       <formula>A25=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="150">
+    <cfRule type="expression" dxfId="356" priority="436">
       <formula>A25=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="151">
+    <cfRule type="expression" dxfId="355" priority="437">
       <formula>A25=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="152">
+    <cfRule type="expression" dxfId="354" priority="438">
       <formula>A25=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="153">
+    <cfRule type="expression" dxfId="353" priority="439">
       <formula>A25=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="154">
+    <cfRule type="expression" dxfId="352" priority="440">
       <formula>A25=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AG20">
-    <cfRule type="expression" dxfId="120" priority="111">
+    <cfRule type="expression" dxfId="351" priority="397">
       <formula>AF17="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="112">
+    <cfRule type="expression" dxfId="350" priority="398">
       <formula>AF17=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="113">
+    <cfRule type="expression" dxfId="349" priority="399">
       <formula>AF17=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="114">
+    <cfRule type="expression" dxfId="348" priority="400">
       <formula>AF17=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="115">
+    <cfRule type="expression" dxfId="347" priority="401">
       <formula>AF17=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="346" priority="402">
       <formula>AF17=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="345" priority="403">
       <formula>AF17=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="118">
+    <cfRule type="expression" dxfId="344" priority="404">
       <formula>AF17=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="119">
+    <cfRule type="expression" dxfId="343" priority="405">
       <formula>AF17=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="120">
+    <cfRule type="expression" dxfId="342" priority="406">
       <formula>AF17=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="121">
+    <cfRule type="expression" dxfId="341" priority="407">
       <formula>AF17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7 V8:W8">
-    <cfRule type="expression" dxfId="109" priority="133">
+    <cfRule type="expression" dxfId="340" priority="419">
       <formula>V7="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="134">
+    <cfRule type="expression" dxfId="339" priority="420">
       <formula>V7=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="135">
+    <cfRule type="expression" dxfId="338" priority="421">
       <formula>V7=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="136">
+    <cfRule type="expression" dxfId="337" priority="422">
       <formula>V7=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="137">
+    <cfRule type="expression" dxfId="336" priority="423">
       <formula>V7=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="138">
+    <cfRule type="expression" dxfId="335" priority="424">
       <formula>V7=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="139">
+    <cfRule type="expression" dxfId="334" priority="425">
       <formula>V7=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="140">
+    <cfRule type="expression" dxfId="333" priority="426">
       <formula>V7=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="141">
+    <cfRule type="expression" dxfId="332" priority="427">
       <formula>V7=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="142">
+    <cfRule type="expression" dxfId="331" priority="428">
       <formula>V7=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="143">
+    <cfRule type="expression" dxfId="330" priority="429">
       <formula>V7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20 AA21:AB21">
-    <cfRule type="expression" dxfId="98" priority="122">
+    <cfRule type="expression" dxfId="329" priority="408">
       <formula>AA20="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="123">
+    <cfRule type="expression" dxfId="328" priority="409">
       <formula>AA20=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="124">
+    <cfRule type="expression" dxfId="327" priority="410">
       <formula>AA20=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="125">
+    <cfRule type="expression" dxfId="326" priority="411">
       <formula>AA20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="126">
+    <cfRule type="expression" dxfId="325" priority="412">
       <formula>AA20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="127">
+    <cfRule type="expression" dxfId="324" priority="413">
       <formula>AA20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="128">
+    <cfRule type="expression" dxfId="323" priority="414">
       <formula>AA20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="129">
+    <cfRule type="expression" dxfId="322" priority="415">
       <formula>AA20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="130">
+    <cfRule type="expression" dxfId="321" priority="416">
       <formula>AA20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="131">
+    <cfRule type="expression" dxfId="320" priority="417">
       <formula>AA20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="132">
+    <cfRule type="expression" dxfId="319" priority="418">
       <formula>AA20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15 AF16:AG16">
-    <cfRule type="expression" dxfId="87" priority="100">
+    <cfRule type="expression" dxfId="318" priority="386">
       <formula>AF15="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="101">
+    <cfRule type="expression" dxfId="317" priority="387">
       <formula>AF15=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="102">
+    <cfRule type="expression" dxfId="316" priority="388">
       <formula>AF15=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="103">
+    <cfRule type="expression" dxfId="315" priority="389">
       <formula>AF15=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="104">
+    <cfRule type="expression" dxfId="314" priority="390">
       <formula>AF15=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="105">
+    <cfRule type="expression" dxfId="313" priority="391">
       <formula>AF15=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="106">
+    <cfRule type="expression" dxfId="312" priority="392">
       <formula>AF15=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="107">
+    <cfRule type="expression" dxfId="311" priority="393">
       <formula>AF15=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="108">
+    <cfRule type="expression" dxfId="310" priority="394">
       <formula>AF15=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="109">
+    <cfRule type="expression" dxfId="309" priority="395">
       <formula>AF15=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="110">
+    <cfRule type="expression" dxfId="308" priority="396">
       <formula>AF15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20 AZ21:BA21">
-    <cfRule type="expression" dxfId="76" priority="23">
+    <cfRule type="expression" dxfId="307" priority="309">
       <formula>AZ20="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="24">
+    <cfRule type="expression" dxfId="306" priority="310">
       <formula>AZ20=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="25">
+    <cfRule type="expression" dxfId="305" priority="311">
       <formula>AZ20=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="26">
+    <cfRule type="expression" dxfId="304" priority="312">
       <formula>AZ20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="27">
+    <cfRule type="expression" dxfId="303" priority="313">
       <formula>AZ20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="302" priority="314">
       <formula>AZ20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="301" priority="315">
       <formula>AZ20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="300" priority="316">
       <formula>AZ20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="299" priority="317">
       <formula>AZ20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="298" priority="318">
       <formula>AZ20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="297" priority="319">
       <formula>AZ20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20 AK21:AL21">
-    <cfRule type="expression" dxfId="65" priority="89">
+    <cfRule type="expression" dxfId="296" priority="375">
       <formula>AK20="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="90">
+    <cfRule type="expression" dxfId="295" priority="376">
       <formula>AK20=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="91">
+    <cfRule type="expression" dxfId="294" priority="377">
       <formula>AK20=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="92">
+    <cfRule type="expression" dxfId="293" priority="378">
       <formula>AK20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="93">
+    <cfRule type="expression" dxfId="292" priority="379">
       <formula>AK20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="94">
+    <cfRule type="expression" dxfId="291" priority="380">
       <formula>AK20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="95">
+    <cfRule type="expression" dxfId="290" priority="381">
       <formula>AK20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="96">
+    <cfRule type="expression" dxfId="289" priority="382">
       <formula>AK20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="97">
+    <cfRule type="expression" dxfId="288" priority="383">
       <formula>AK20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="98">
+    <cfRule type="expression" dxfId="287" priority="384">
       <formula>AK20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="99">
+    <cfRule type="expression" dxfId="286" priority="385">
       <formula>AK20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20 AP21:AQ21">
-    <cfRule type="expression" dxfId="54" priority="67">
+    <cfRule type="expression" dxfId="285" priority="353">
       <formula>AP20="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="68">
+    <cfRule type="expression" dxfId="284" priority="354">
       <formula>AP20=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="69">
+    <cfRule type="expression" dxfId="283" priority="355">
       <formula>AP20=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="70">
+    <cfRule type="expression" dxfId="282" priority="356">
       <formula>AP20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="71">
+    <cfRule type="expression" dxfId="281" priority="357">
       <formula>AP20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="72">
+    <cfRule type="expression" dxfId="280" priority="358">
       <formula>AP20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="73">
+    <cfRule type="expression" dxfId="279" priority="359">
       <formula>AP20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="74">
+    <cfRule type="expression" dxfId="278" priority="360">
       <formula>AP20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="75">
+    <cfRule type="expression" dxfId="277" priority="361">
       <formula>AP20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="76">
+    <cfRule type="expression" dxfId="276" priority="362">
       <formula>AP20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="77">
+    <cfRule type="expression" dxfId="275" priority="363">
       <formula>AP20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20 AU21:AV21">
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="274" priority="342">
       <formula>AU20="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="57">
+    <cfRule type="expression" dxfId="273" priority="343">
       <formula>AU20=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="58">
+    <cfRule type="expression" dxfId="272" priority="344">
       <formula>AU20=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="59">
+    <cfRule type="expression" dxfId="271" priority="345">
       <formula>AU20=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="60">
+    <cfRule type="expression" dxfId="270" priority="346">
       <formula>AU20=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="61">
+    <cfRule type="expression" dxfId="269" priority="347">
       <formula>AU20=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="62">
+    <cfRule type="expression" dxfId="268" priority="348">
       <formula>AU20=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="63">
+    <cfRule type="expression" dxfId="267" priority="349">
       <formula>AU20=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="266" priority="350">
       <formula>AU20=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="65">
+    <cfRule type="expression" dxfId="265" priority="351">
       <formula>AU20=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="66">
+    <cfRule type="expression" dxfId="264" priority="352">
       <formula>AU20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7 AU8:AV8">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="263" priority="320">
       <formula>AU7="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="262" priority="321">
       <formula>AU7=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="261" priority="322">
       <formula>AU7=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="260" priority="323">
       <formula>AU7=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="259" priority="324">
       <formula>AU7=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="258" priority="325">
       <formula>AU7=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="257" priority="326">
       <formula>AU7=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="256" priority="327">
       <formula>AU7=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="42">
+    <cfRule type="expression" dxfId="255" priority="328">
       <formula>AU7=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="43">
+    <cfRule type="expression" dxfId="254" priority="329">
       <formula>AU7=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="44">
+    <cfRule type="expression" dxfId="253" priority="330">
       <formula>AU7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ13:AZ13 AQ10:AZ10 AQ9">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="252" priority="298">
       <formula>AQ9="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="251" priority="299">
       <formula>AQ9=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="250" priority="300">
       <formula>AQ9=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="249" priority="301">
       <formula>AQ9=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="248" priority="302">
       <formula>AQ9=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="247" priority="303">
       <formula>AQ9=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="246" priority="304">
       <formula>AQ9=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="245" priority="305">
       <formula>AQ9=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="244" priority="306">
       <formula>AQ9=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="243" priority="307">
       <formula>AQ9=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="242" priority="308">
       <formula>AQ9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7 AP8:AQ8">
+    <cfRule type="expression" dxfId="241" priority="287">
+      <formula>AP7="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="288">
+      <formula>AP7=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="289">
+      <formula>AP7=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="290">
+      <formula>AP7=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="291">
+      <formula>AP7=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="292">
+      <formula>AP7=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="293">
+      <formula>AP7=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="294">
+      <formula>AP7=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="295">
+      <formula>AP7=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="296">
+      <formula>AP7=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="297">
+      <formula>AP7=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:AC37 AD33:AO37 AP35:AP38 AW32:AZ32 G33:T33 A34:S37 T34:AC34 A32:U32 F31:U31 AR31:AT32 X32:AO32 A31 X31:Z31 AC31:AO31 AW31:AY31">
+    <cfRule type="expression" dxfId="230" priority="276">
+      <formula>A31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="277">
+      <formula>A31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="278">
+      <formula>A31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="279">
+      <formula>A31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="280">
+      <formula>A31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="281">
+      <formula>A31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="282">
+      <formula>A31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="283">
+      <formula>A31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="284">
+      <formula>A31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="285">
+      <formula>A31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="286">
+      <formula>A31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V31 V32:W32">
+    <cfRule type="expression" dxfId="219" priority="254">
+      <formula>V31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="255">
+      <formula>V31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="256">
+      <formula>V31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="257">
+      <formula>V31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="258">
+      <formula>V31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="259">
+      <formula>V31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="260">
+      <formula>V31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="261">
+      <formula>V31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="262">
+      <formula>V31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="263">
+      <formula>V31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="264">
+      <formula>V31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU31 AU32:AV32">
+    <cfRule type="expression" dxfId="208" priority="177">
+      <formula>AU31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="178">
+      <formula>AU31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="179">
+      <formula>AU31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="180">
+      <formula>AU31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="181">
+      <formula>AU31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="182">
+      <formula>AU31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="183">
+      <formula>AU31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="184">
+      <formula>AU31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="185">
+      <formula>AU31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="186">
+      <formula>AU31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="187">
+      <formula>AU31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ37:AZ37 AQ34:AZ34 AQ33">
+    <cfRule type="expression" dxfId="197" priority="155">
+      <formula>AQ33="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="156">
+      <formula>AQ33=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="157">
+      <formula>AQ33=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="158">
+      <formula>AQ33=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="159">
+      <formula>AQ33=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="160">
+      <formula>AQ33=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="161">
+      <formula>AQ33=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="162">
+      <formula>AQ33=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="163">
+      <formula>AQ33=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="164">
+      <formula>AQ33=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="165">
+      <formula>AQ33=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31 AP32:AQ32">
+    <cfRule type="expression" dxfId="186" priority="144">
+      <formula>AP31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="145">
+      <formula>AP31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="146">
+      <formula>AP31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="147">
+      <formula>AP31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="148">
+      <formula>AP31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="149">
+      <formula>AP31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="150">
+      <formula>AP31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="151">
+      <formula>AP31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="152">
+      <formula>AP31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="153">
+      <formula>AP31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="154">
+      <formula>AP31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW44:AY45 AV44 AV39:AZ43">
+    <cfRule type="expression" dxfId="175" priority="133">
+      <formula>AV39="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="134">
+      <formula>AV39=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="135">
+      <formula>AV39=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="136">
+      <formula>AV39=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="137">
+      <formula>AV39=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="138">
+      <formula>AV39=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="139">
+      <formula>AV39=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="140">
+      <formula>AV39=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="141">
+      <formula>AV39=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="142">
+      <formula>AV39=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="143">
+      <formula>AV39=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV45">
+    <cfRule type="expression" dxfId="164" priority="122">
+      <formula>AV45="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="123">
+      <formula>AV45=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="124">
+      <formula>AV45=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="125">
+      <formula>AV45=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="126">
+      <formula>AV45=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="127">
+      <formula>AV45=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="128">
+      <formula>AV45=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="129">
+      <formula>AV45=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="130">
+      <formula>AV45=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="131">
+      <formula>AV45=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="132">
+      <formula>AV45=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ44:AZ45">
+    <cfRule type="expression" dxfId="153" priority="111">
+      <formula>AZ44="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="112">
+      <formula>AZ44=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="113">
+      <formula>AZ44=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="114">
+      <formula>AZ44=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="115">
+      <formula>AZ44=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="116">
+      <formula>AZ44=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="117">
+      <formula>AZ44=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="118">
+      <formula>AZ44=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="119">
+      <formula>AZ44=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="120">
+      <formula>AZ44=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="121">
+      <formula>AZ44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44:AB45 Y44 Y39:AC43">
+    <cfRule type="expression" dxfId="142" priority="100">
+      <formula>Y39="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="101">
+      <formula>Y39=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="102">
+      <formula>Y39=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="103">
+      <formula>Y39=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="104">
+      <formula>Y39=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="105">
+      <formula>Y39=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="106">
+      <formula>Y39=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="107">
+      <formula>Y39=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="108">
+      <formula>Y39=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="109">
+      <formula>Y39=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="110">
+      <formula>Y39=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y45">
+    <cfRule type="expression" dxfId="131" priority="89">
+      <formula>Y45="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="90">
+      <formula>Y45=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="91">
+      <formula>Y45=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="92">
+      <formula>Y45=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="93">
+      <formula>Y45=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="94">
+      <formula>Y45=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="95">
+      <formula>Y45=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="96">
+      <formula>Y45=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="97">
+      <formula>Y45=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="98">
+      <formula>Y45=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="99">
+      <formula>Y45=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44:AC45">
+    <cfRule type="expression" dxfId="120" priority="78">
+      <formula>AC44="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="79">
+      <formula>AC44=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="80">
+      <formula>AC44=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="81">
+      <formula>AC44=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="82">
+      <formula>AC44=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="83">
+      <formula>AC44=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="84">
+      <formula>AC44=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="85">
+      <formula>AC44=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="86">
+      <formula>AC44=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="87">
+      <formula>AC44=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="88">
+      <formula>AC44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:L44 N44:Q44 B44 A44:A45 B45:R45 C50 D44:G44 B48:C49 B46:N47 B51:C51 D48:N51 B52:N52 P46:AY52">
+    <cfRule type="expression" dxfId="54" priority="67">
+      <formula>A44="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="68">
+      <formula>A44=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="69">
+      <formula>A44=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="70">
+      <formula>A44=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="71">
+      <formula>A44=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="72">
+      <formula>A44=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="73">
+      <formula>A44=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="74">
+      <formula>A44=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="75">
+      <formula>A44=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="76">
+      <formula>A44=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="77">
+      <formula>A44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="109" priority="56">
+      <formula>A49="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="57">
+      <formula>A49=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="58">
+      <formula>A49=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="59">
+      <formula>A49=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="60">
+      <formula>A49=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="61">
+      <formula>A49=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="62">
+      <formula>A49=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="63">
+      <formula>A49=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="64">
+      <formula>A49=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="65">
+      <formula>A49=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="66">
+      <formula>A49=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ46:AZ52">
+    <cfRule type="expression" dxfId="98" priority="45">
+      <formula>AZ46="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="46">
+      <formula>AZ46=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="47">
+      <formula>AZ46=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="48">
+      <formula>AZ46=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="49">
+      <formula>AZ46=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="50">
+      <formula>AZ46=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="51">
+      <formula>AZ46=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="52">
+      <formula>AZ46=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="53">
+      <formula>AZ46=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="54">
+      <formula>AZ46=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="55">
+      <formula>AZ46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK44">
+    <cfRule type="expression" dxfId="87" priority="34">
+      <formula>AK44="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="35">
+      <formula>AK44=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="36">
+      <formula>AK44=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="37">
+      <formula>AK44=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="38">
+      <formula>AK44=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="39">
+      <formula>AK44=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="40">
+      <formula>AK44=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="41">
+      <formula>AK44=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="42">
+      <formula>AK44=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="43">
+      <formula>AK44=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="44">
+      <formula>AK44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31">
+    <cfRule type="expression" dxfId="76" priority="23">
+      <formula>AA31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="24">
+      <formula>AA31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="25">
+      <formula>AA31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="26">
+      <formula>AA31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="27">
+      <formula>AA31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="28">
+      <formula>AA31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="29">
+      <formula>AA31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="30">
+      <formula>AA31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="31">
+      <formula>AA31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="32">
+      <formula>AA31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="33">
+      <formula>AA31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ31">
+    <cfRule type="expression" dxfId="65" priority="12">
+      <formula>AZ31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="13">
+      <formula>AZ31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="14">
+      <formula>AZ31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="15">
+      <formula>AZ31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="16">
+      <formula>AZ31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="17">
+      <formula>AZ31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="18">
+      <formula>AZ31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="19">
+      <formula>AZ31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="20">
+      <formula>AZ31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="21">
+      <formula>AZ31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="22">
+      <formula>AZ31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:O52">
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>AP7="P"</formula>
+      <formula>O46="P"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AP7=10</formula>
+      <formula>O46=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="3">
-      <formula>AP7=9</formula>
+      <formula>O46=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="4">
-      <formula>AP7=8</formula>
+      <formula>O46=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="5">
-      <formula>AP7=7</formula>
+      <formula>O46=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AP7=6</formula>
+      <formula>O46=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7">
-      <formula>AP7=5</formula>
+      <formula>O46=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="8">
-      <formula>AP7=4</formula>
+      <formula>O46=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AP7=3</formula>
+      <formula>O46=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AP7=2</formula>
+      <formula>O46=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>AP7=1</formula>
+      <formula>O46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
